--- a/writefile.xlsx
+++ b/writefile.xlsx
@@ -459,143 +459,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>paul</t>
+          <t>Kevin J</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>Miriam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wim</t>
+          <t>Olha</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Andrii</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Oscar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Edoardo</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Tim</t>
-        </is>
-      </c>
+          <t>Imad</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ke</t>
+          <t>Mohamad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>David</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nat</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Olha</t>
-        </is>
-      </c>
+          <t>Maxim</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Yassine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>Aleksander</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lolo</t>
+          <t>Kevin P</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Therese</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Piet</t>
-        </is>
-      </c>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lulu</t>
+          <t>Beatriz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Stef</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Edoardo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Karthika</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Fatemeh</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>

--- a/writefile.xlsx
+++ b/writefile.xlsx
@@ -459,32 +459,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin J</t>
+          <t>Fatemeh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Aleksander</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Olha</t>
+          <t>Patrycja</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Oscar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -492,32 +492,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Kevin P</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mohamad</t>
+          <t>An</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Andrii</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Imad</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maxim</t>
+          <t>Beatriz</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -530,7 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aleksander</t>
+          <t>Karthika</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,17 +540,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kevin P</t>
+          <t>Therese</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Dhanya</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Maxim</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -558,12 +558,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stef</t>
+          <t>Boitumelo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,17 +573,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Karthika</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Manel</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>

--- a/writefile.xlsx
+++ b/writefile.xlsx
@@ -459,32 +459,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Kevin P</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Fatemeh</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Aleksander</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Patrycja</t>
+          <t>Manel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Edoardo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vera</t>
+          <t>Karthika</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>Dhanya</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -492,32 +492,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin P</t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Oscar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Andrii</t>
+          <t>Imad</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Imad</t>
+          <t>Yassine</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Beatriz</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -525,32 +525,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yassine</t>
+          <t>Vera</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karthika</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Therese</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dhanya</t>
+          <t>Patrycja</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Maxim</t>
+          <t>Andrii</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -563,17 +563,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Stef</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Boitumelo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Edoardo</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Miriam</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Manel</t>
+          <t>David</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
